--- a/src/test/resources/ObjectRepositiory/dataSheet.xlsx
+++ b/src/test/resources/ObjectRepositiory/dataSheet.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\eclipse-workspace\HackathonInsuranceAutomation\src\test\resources\ObjectRepositiory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B908904C-EC9C-44E1-9B86-C15C63F19963}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A087F663-3B2F-43C9-9D6F-F2E17EF4987D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{BE2F19A2-C4DE-417A-AB33-C7411B5208F9}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15300" windowHeight="7995" activeTab="1" xr2:uid="{BE2F19A2-C4DE-417A-AB33-C7411B5208F9}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData" sheetId="1" r:id="rId1"/>
     <sheet name="OutputData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t xml:space="preserve">Country name </t>
   </si>
@@ -65,12 +65,43 @@
   </si>
   <si>
     <t>21 yrs</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Religare</t>
+  </si>
+  <si>
+    <t>1,931</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reliance</t>
+  </si>
+  <si>
+    <t>2,275</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Royal Sundaram</t>
+  </si>
+  <si>
+    <t>2,486</t>
+  </si>
+  <si>
+    <t>23 yrs</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Scotland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -119,6 +150,114 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,34 +574,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC48DC0-CC21-4475-B7A5-2B50C1EE5F1B}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -548,13 +686,27 @@
       <c r="Y2" s="3"/>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44338</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44308</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9876543210</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -575,13 +727,24 @@
       <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44308</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44338</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -601,14 +764,28 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44308</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44338</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1000000000</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -629,12 +806,27 @@
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44308</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44338</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9876543210</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -655,12 +847,27 @@
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44308</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44338</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9876543210</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -849,15 +1056,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB3D2A5-7759-49BF-B9D6-00D019036E79}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.05078125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,6 +1076,126 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
